--- a/õpilasteFail.xlsx
+++ b/õpilasteFail.xlsx
@@ -14293,7 +14293,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> --- </t>
+          <t>Programmeerimine keeles Python 2</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">

--- a/õpilasteFail.xlsx
+++ b/õpilasteFail.xlsx
@@ -450,94 +450,94 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brianna 1</t>
+          <t>Lauren 4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joonestamine 2. periood</t>
+          <t>Finantsmõtlemine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Linux Raspberry Pi näitel</t>
+          <t>Labortöid füüsikas 10. ja 11. klassile</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Keemilised elemendid</t>
+          <t>Ajakirjanduse alused</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Keskkonnakeemia 3. periood</t>
+          <t>Statistiline maailmapilt</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Loogika 4. periood</t>
+          <t>Matemaatika ajaloo elemente ja rakendusi</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Teater Vanemuise kultuuritänavas</t>
+          <t>Majandusõpe</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ettevõtlusõpe 5. periood</t>
+          <t>Laboratoorsed tööd bioloogias</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>CAD joonestamine</t>
+          <t>Mobiilirakenduste loomine (APP Inventor)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lauren 4</t>
+          <t>Brianna 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Finantsmõtlemine</t>
+          <t>Joonestamine 2. periood</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Labortöid füüsikas 10. ja 11. klassile</t>
+          <t>Linux Raspberry Pi näitel</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ajakirjanduse alused</t>
+          <t>Keemilised elemendid</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Statistiline maailmapilt</t>
+          <t>Keskkonnakeemia 3. periood</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Matemaatika ajaloo elemente ja rakendusi</t>
+          <t>Loogika 4. periood</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Majandusõpe</t>
+          <t>Teater Vanemuise kultuuritänavas</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Laboratoorsed tööd bioloogias</t>
+          <t>Ettevõtlusõpe 5. periood</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Mobiilirakenduste loomine (APP Inventor)</t>
+          <t>CAD joonestamine</t>
         </is>
       </c>
     </row>

--- a/õpilasteFail.xlsx
+++ b/õpilasteFail.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -450,42 +518,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lauren 4</t>
+          <t>Jessica 2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Finantsmõtlemine</t>
+          <t>Globaliseeruv maailm</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Labortöid füüsikas 10. ja 11. klassile</t>
+          <t>Õpioskused</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ajakirjanduse alused</t>
+          <t>Küberkaitse 1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Statistiline maailmapilt</t>
+          <t>Keskkonnakeemia 3. periood</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Matemaatika ajaloo elemente ja rakendusi</t>
+          <t>Loomade käitumine 4. periood</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Majandusõpe</t>
+          <t>Millest ELU koosneb?</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Laboratoorsed tööd bioloogias</t>
+          <t>Tänavakunst</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -497,54 +565,54 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brianna 1</t>
+          <t>Lauren 4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Joonestamine 2. periood</t>
+          <t>Finantsmõtlemine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Linux Raspberry Pi näitel</t>
+          <t>Labortöid füüsikas 10. ja 11. klassile</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Keemilised elemendid</t>
+          <t>Ajakirjanduse alused</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Keskkonnakeemia 3. periood</t>
+          <t>Statistiline maailmapilt</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Loogika 4. periood</t>
+          <t>Matemaatika ajaloo elemente ja rakendusi</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Teater Vanemuise kultuuritänavas</t>
+          <t>Majandusõpe</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Ettevõtlusõpe 5. periood</t>
+          <t>Laboratoorsed tööd bioloogias</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>CAD joonestamine</t>
+          <t>Mobiilirakenduste loomine (APP Inventor)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Emma 5</t>
+          <t>Hannah 3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -554,49 +622,49 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Inimene ja õigus</t>
+          <t>Linux Raspberry Pi näitel</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Muusikaline kirjaoskus</t>
+          <t>Loomade käitumine 3. periood</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Inimene ja ühiskond 3. periood</t>
+          <t>Turundus</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Joonestamine 4. periood</t>
+          <t>Köögifüüsika</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Teater Vanemuise kultuuritänavas</t>
+          <t>Millest ELU koosneb?</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Ettevõtlusõpe 5. periood</t>
+          <t>Tänavakunst</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Karjääriõpetus</t>
+          <t>Projektikirjutamisõpe</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hannah 3</t>
+          <t>Brianna 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Geoinformaatika</t>
+          <t>Joonestamine 2. periood</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,79 +674,79 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Loomade käitumine 3. periood</t>
+          <t>Keemilised elemendid</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Turundus</t>
+          <t>Keskkonnakeemia 3. periood</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Köögifüüsika</t>
+          <t>Loogika 4. periood</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Millest ELU koosneb?</t>
+          <t>Teater Vanemuise kultuuritänavas</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Tänavakunst</t>
+          <t>Ettevõtlusõpe 5. periood</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Projektikirjutamisõpe</t>
+          <t>CAD joonestamine</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jessica 2</t>
+          <t>Emma 5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Globaliseeruv maailm</t>
+          <t>Geoinformaatika</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Õpioskused</t>
+          <t>Inimene ja õigus</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Küberkaitse 1</t>
+          <t>Muusikaline kirjaoskus</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Keskkonnakeemia 3. periood</t>
+          <t>Inimene ja ühiskond 3. periood</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Loomade käitumine 4. periood</t>
+          <t>Joonestamine 4. periood</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Millest ELU koosneb?</t>
+          <t>Teater Vanemuise kultuuritänavas</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Tänavakunst</t>
+          <t>Ettevõtlusõpe 5. periood</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Mobiilirakenduste loomine (APP Inventor)</t>
+          <t>Karjääriõpetus</t>
         </is>
       </c>
     </row>

--- a/õpilasteFail.xlsx
+++ b/õpilasteFail.xlsx
@@ -565,59 +565,59 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lauren 4</t>
+          <t>Hannah 3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Finantsmõtlemine</t>
+          <t>Geoinformaatika</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Labortöid füüsikas 10. ja 11. klassile</t>
+          <t>Linux Raspberry Pi näitel</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ajakirjanduse alused</t>
+          <t>Loomade käitumine 3. periood</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Statistiline maailmapilt</t>
+          <t>Turundus</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Matemaatika ajaloo elemente ja rakendusi</t>
+          <t>Köögifüüsika</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Majandusõpe</t>
+          <t>Millest ELU koosneb?</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Laboratoorsed tööd bioloogias</t>
+          <t>Tänavakunst</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Mobiilirakenduste loomine (APP Inventor)</t>
+          <t>Projektikirjutamisõpe</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hannah 3</t>
+          <t>Brianna 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Geoinformaatika</t>
+          <t>Joonestamine 2. periood</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -627,64 +627,64 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Loomade käitumine 3. periood</t>
+          <t>Keemilised elemendid</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Turundus</t>
+          <t>Keskkonnakeemia 3. periood</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Köögifüüsika</t>
+          <t>Loogika 4. periood</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Millest ELU koosneb?</t>
+          <t>Teater Vanemuise kultuuritänavas</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Tänavakunst</t>
+          <t>Ettevõtlusõpe 5. periood</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Projektikirjutamisõpe</t>
+          <t>CAD joonestamine</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brianna 1</t>
+          <t>Emma 5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Joonestamine 2. periood</t>
+          <t>Geoinformaatika</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Linux Raspberry Pi näitel</t>
+          <t>Inimene ja õigus</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Keemilised elemendid</t>
+          <t>Muusikaline kirjaoskus</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Keskkonnakeemia 3. periood</t>
+          <t>Inimene ja ühiskond 3. periood</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Loogika 4. periood</t>
+          <t>Joonestamine 4. periood</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -699,54 +699,54 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>CAD joonestamine</t>
+          <t>Karjääriõpetus</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Emma 5</t>
+          <t>Lauren 4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Geoinformaatika</t>
+          <t>Finantsmõtlemine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Inimene ja õigus</t>
+          <t>Labortöid füüsikas 10. ja 11. klassile</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Muusikaline kirjaoskus</t>
+          <t>Ajakirjanduse alused</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Inimene ja ühiskond 3. periood</t>
+          <t>Statistiline maailmapilt</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Joonestamine 4. periood</t>
+          <t>Matemaatika ajaloo elemente ja rakendusi</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Teater Vanemuise kultuuritänavas</t>
+          <t>Majandusõpe</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Ettevõtlusõpe 5. periood</t>
+          <t>Laboratoorsed tööd bioloogias</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Karjääriõpetus</t>
+          <t>Mobiilirakenduste loomine (APP Inventor)</t>
         </is>
       </c>
     </row>

--- a/õpilasteFail.xlsx
+++ b/õpilasteFail.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,11 @@
           <t>5. periood õhtu</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Praktikumid ja tunnivälised kursused</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -514,26 +519,27 @@
           <t>Projektikirjutamisõpe</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jessica 2</t>
+          <t>Brianna 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Globaliseeruv maailm</t>
+          <t>Joonestamine 2. periood</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Õpioskused</t>
+          <t>Linux Raspberry Pi näitel</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Küberkaitse 1</t>
+          <t>Keemilised elemendid</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,81 +549,91 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Loomade käitumine 4. periood</t>
+          <t>Loogika 4. periood</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Millest ELU koosneb?</t>
+          <t>Teater Vanemuise kultuuritänavas</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Tänavakunst</t>
+          <t>Ettevõtlusõpe 5. periood</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Mobiilirakenduste loomine (APP Inventor)</t>
+          <t>CAD joonestamine</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Koorilaul</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hannah 3</t>
+          <t>Lauren 4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Geoinformaatika</t>
+          <t>Finantsmõtlemine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Linux Raspberry Pi näitel</t>
+          <t>Labortöid füüsikas 10. ja 11. klassile</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Loomade käitumine 3. periood</t>
+          <t>Ajakirjanduse alused</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Turundus</t>
+          <t>Statistiline maailmapilt</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Köögifüüsika</t>
+          <t>Matemaatika ajaloo elemente ja rakendusi</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Millest ELU koosneb?</t>
+          <t>Majandusõpe</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Tänavakunst</t>
+          <t>Laboratoorsed tööd bioloogias</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Projektikirjutamisõpe</t>
+          <t>Mobiilirakenduste loomine (APP Inventor)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Akvaristika, Koorilaul, Rahvatants</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brianna 1</t>
+          <t>Hannah 3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Joonestamine 2. periood</t>
+          <t>Geoinformaatika</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -627,126 +643,141 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Keemilised elemendid</t>
+          <t>Loomade käitumine 3. periood</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Keskkonnakeemia 3. periood</t>
+          <t>Turundus</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Loogika 4. periood</t>
+          <t>Köögifüüsika</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Teater Vanemuise kultuuritänavas</t>
+          <t>Millest ELU koosneb?</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Ettevõtlusõpe 5. periood</t>
+          <t>Tänavakunst</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>CAD joonestamine</t>
+          <t>Projektikirjutamisõpe</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Koorilaul, Rahvatants</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Emma 5</t>
+          <t>Jessica 2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Geoinformaatika</t>
+          <t>Globaliseeruv maailm</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Inimene ja õigus</t>
+          <t>Õpioskused</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Muusikaline kirjaoskus</t>
+          <t>Küberkaitse 1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Inimene ja ühiskond 3. periood</t>
+          <t>Keskkonnakeemia 3. periood</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Joonestamine 4. periood</t>
+          <t>Loomade käitumine 4. periood</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Teater Vanemuise kultuuritänavas</t>
+          <t>Millest ELU koosneb?</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Ettevõtlusõpe 5. periood</t>
+          <t>Tänavakunst</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Karjääriõpetus</t>
+          <t>Mobiilirakenduste loomine (APP Inventor)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Rahvatants</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lauren 4</t>
+          <t>Emma 5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Finantsmõtlemine</t>
+          <t>Geoinformaatika</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Labortöid füüsikas 10. ja 11. klassile</t>
+          <t>Inimene ja õigus</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ajakirjanduse alused</t>
+          <t>Muusikaline kirjaoskus</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Statistiline maailmapilt</t>
+          <t>Inimene ja ühiskond 3. periood</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Matemaatika ajaloo elemente ja rakendusi</t>
+          <t>Joonestamine 4. periood</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Majandusõpe</t>
+          <t>Teater Vanemuise kultuuritänavas</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Laboratoorsed tööd bioloogias</t>
+          <t>Ettevõtlusõpe 5. periood</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Mobiilirakenduste loomine (APP Inventor)</t>
+          <t>Karjääriõpetus</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Rahvatants, Koorilaul, Näitering, Akvaristika</t>
         </is>
       </c>
     </row>
